--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>3992.05</t>
+  </si>
+  <si>
+    <t>0000952078</t>
+  </si>
+  <si>
+    <t>3992.30</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -517,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -526,25 +532,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" t="str">
         <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-01-31'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000963711', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.75  , 'mo_saldo' =&gt; 3992.05, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000952078', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 3992.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -553,21 +559,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -576,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -585,12 +591,12 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -599,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -608,12 +614,12 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -622,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -631,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,50 +645,50 @@
         <v>41666</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -691,21 +697,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -723,12 +729,12 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -746,12 +752,12 @@
         <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -769,12 +775,12 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -789,15 +795,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -812,15 +818,15 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -829,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -838,12 +844,12 @@
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -852,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -861,12 +867,12 @@
         <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -875,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -884,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,50 +898,50 @@
         <v>41652</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -950,15 +956,15 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -967,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -976,12 +982,12 @@
         <v>24</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -990,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -999,12 +1005,12 @@
         <v>24</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1022,12 +1028,12 @@
         <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1042,37 +1048,57 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>41641</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1082,6 +1108,9 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -186,6 +186,42 @@
   </si>
   <si>
     <t>3992.30</t>
+  </si>
+  <si>
+    <t>0000951203</t>
+  </si>
+  <si>
+    <t>0000951216</t>
+  </si>
+  <si>
+    <t>0000951497</t>
+  </si>
+  <si>
+    <t>0000951829</t>
+  </si>
+  <si>
+    <t>CR AH PROGRAMADO</t>
+  </si>
+  <si>
+    <t>0000193374</t>
+  </si>
+  <si>
+    <t>20.00  </t>
+  </si>
+  <si>
+    <t>4012.30</t>
+  </si>
+  <si>
+    <t>4013.80</t>
+  </si>
+  <si>
+    <t>4013.05</t>
+  </si>
+  <si>
+    <t>4012.80</t>
+  </si>
+  <si>
+    <t>4012.55</t>
   </si>
 </sst>
 </file>
@@ -508,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41673</v>
+        <v>41677</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -532,25 +568,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H1" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000952078', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 3992.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-01 00:00:01'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:03:32'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000951203', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.75  , 'mo_saldo' =&gt; 4013.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:03:32'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -559,21 +595,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41669</v>
+        <v>41675</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -582,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -591,12 +627,12 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -605,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -614,35 +650,35 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41666</v>
+        <v>41673</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -651,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -660,35 +696,35 @@
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41666</v>
+        <v>41670</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41663</v>
+        <v>41669</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -697,21 +733,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41662</v>
+        <v>41668</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -720,21 +756,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41661</v>
+        <v>41667</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -743,21 +779,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41660</v>
+        <v>41666</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -766,44 +802,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41659</v>
+        <v>41666</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -812,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -821,12 +857,12 @@
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -844,12 +880,12 @@
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41654</v>
+        <v>41661</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -858,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -867,12 +903,12 @@
         <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -881,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -890,12 +926,12 @@
         <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41652</v>
+        <v>41659</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -904,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -913,35 +949,35 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -950,21 +986,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41648</v>
+        <v>41654</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -973,21 +1009,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41647</v>
+        <v>41653</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -996,21 +1032,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41646</v>
+        <v>41652</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1019,44 +1055,44 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41645</v>
+        <v>41652</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41642</v>
+        <v>41649</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1065,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1074,12 +1110,12 @@
         <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41641</v>
+        <v>41648</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1088,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1097,20 +1133,135 @@
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>4012.55</t>
+  </si>
+  <si>
+    <t>0000950673</t>
+  </si>
+  <si>
+    <t>0000950683</t>
+  </si>
+  <si>
+    <t>4014.05</t>
+  </si>
+  <si>
+    <t>4014.30</t>
   </si>
 </sst>
 </file>
@@ -544,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -568,25 +580,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H1" t="str">
-        <f>CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:03:32'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000951203', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.75  , 'mo_saldo' =&gt; 4013.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-08 10:03:32'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL),</v>
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950673', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-12 22:34:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -595,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -604,12 +616,12 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -618,21 +630,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -641,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -650,35 +662,35 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -687,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -696,35 +708,35 @@
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41669</v>
+        <v>41673</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -733,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -742,12 +754,12 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41668</v>
+        <v>41670</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -756,21 +768,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41667</v>
+        <v>41669</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -779,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -788,12 +800,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -802,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -811,35 +823,35 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -854,38 +866,38 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -894,21 +906,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41660</v>
+        <v>41662</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -926,12 +938,12 @@
         <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41659</v>
+        <v>41661</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -949,12 +961,12 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -969,15 +981,15 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -995,12 +1007,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1009,21 +1021,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1032,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1041,12 +1053,12 @@
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1055,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1064,35 +1076,35 @@
         <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1101,44 +1113,44 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41647</v>
+        <v>41649</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1147,21 +1159,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41646</v>
+        <v>41648</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1170,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1179,12 +1191,12 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1193,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1202,12 +1214,12 @@
         <v>24</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41642</v>
+        <v>41646</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1222,15 +1234,15 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41641</v>
+        <v>41645</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1248,20 +1260,66 @@
         <v>24</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>4014.30</t>
+  </si>
+  <si>
+    <t>0000950378</t>
+  </si>
+  <si>
+    <t>0000950389</t>
+  </si>
+  <si>
+    <t>0000950666</t>
+  </si>
+  <si>
+    <t>4015.55</t>
+  </si>
+  <si>
+    <t>4014.80</t>
+  </si>
+  <si>
+    <t>4014.55</t>
   </si>
 </sst>
 </file>
@@ -556,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -580,25 +598,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950673', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-12 22:34:41'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL 'mo_borrado_logico' =&gt; false),</v>
+        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950378', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.75  , 'mo_saldo' =&gt; 4015.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -607,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -616,12 +634,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950389', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -630,21 +652,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950666', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -653,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -662,12 +688,12 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -676,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -685,12 +711,12 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -699,44 +725,44 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -745,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -754,12 +780,12 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -768,44 +794,44 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -814,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -823,12 +849,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -837,21 +863,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -860,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -869,35 +895,35 @@
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -906,21 +932,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -929,44 +955,44 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -975,21 +1001,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1007,12 +1033,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1027,15 +1053,15 @@
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1053,12 +1079,12 @@
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1067,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1076,12 +1102,12 @@
         <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1090,21 +1116,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1113,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1122,35 +1148,35 @@
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1159,21 +1185,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1182,44 +1208,44 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1228,21 +1254,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1251,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1260,12 +1286,12 @@
         <v>24</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1274,21 +1300,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1297,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1306,20 +1332,89 @@
         <v>24</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -252,6 +252,33 @@
   </si>
   <si>
     <t>4014.55</t>
+  </si>
+  <si>
+    <t>0003049433</t>
+  </si>
+  <si>
+    <t>67.76  </t>
+  </si>
+  <si>
+    <t>0000949403</t>
+  </si>
+  <si>
+    <t>0000949696</t>
+  </si>
+  <si>
+    <t>0000949988</t>
+  </si>
+  <si>
+    <t>4015.80</t>
+  </si>
+  <si>
+    <t>4016.05</t>
+  </si>
+  <si>
+    <t>4016.30</t>
+  </si>
+  <si>
+    <t>4084.06</t>
   </si>
 </sst>
 </file>
@@ -574,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,34 +616,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41684</v>
+        <v>41690</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950378', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.75  , 'mo_saldo' =&gt; 4015.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003049433', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 67.76  , 'mo_saldo' =&gt; 4084.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41683</v>
+        <v>41689</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -625,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -634,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A2,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B2,"', 'mo_tipo' =&gt; '",C2,"', 'mo_documento' =&gt; '",D2,"', 'mo_oficina' =&gt; '",E2,"', 'mo_monto' =&gt; ",F2,", 'mo_saldo' =&gt; ",G2,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950389', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949403', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4016.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41682</v>
+        <v>41688</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -652,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -661,16 +688,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950666', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4014.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-17 21:14:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949696', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4016.05, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41681</v>
+        <v>41687</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -679,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -688,12 +715,16 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949988', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4015.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41680</v>
+        <v>41684</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -702,21 +733,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41677</v>
+        <v>41683</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -725,21 +756,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41676</v>
+        <v>41682</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -748,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -757,12 +788,12 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -771,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -780,12 +811,12 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -794,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -803,35 +834,35 @@
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41673</v>
+        <v>41676</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -840,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -849,12 +880,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41670</v>
+        <v>41675</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -863,21 +894,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -886,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -895,35 +926,35 @@
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41667</v>
+        <v>41673</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -932,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -941,12 +972,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41666</v>
+        <v>41670</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -955,44 +986,44 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41663</v>
+        <v>41668</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1001,21 +1032,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41662</v>
+        <v>41667</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1024,21 +1055,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1047,44 +1078,44 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41660</v>
+        <v>41666</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41659</v>
+        <v>41663</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1093,21 +1124,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41656</v>
+        <v>41662</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1122,15 +1153,15 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1148,12 +1179,12 @@
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1162,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1171,12 +1202,12 @@
         <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41653</v>
+        <v>41659</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1185,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1194,12 +1225,12 @@
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1208,44 +1239,44 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1254,21 +1285,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41648</v>
+        <v>41653</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1277,21 +1308,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1300,44 +1331,44 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41646</v>
+        <v>41652</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41645</v>
+        <v>41649</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1346,21 +1377,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41642</v>
+        <v>41648</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1369,21 +1400,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41641</v>
+        <v>41647</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1392,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1401,20 +1432,112 @@
         <v>24</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -279,6 +279,63 @@
   </si>
   <si>
     <t>4084.06</t>
+  </si>
+  <si>
+    <t>0000948980</t>
+  </si>
+  <si>
+    <t>0000949007</t>
+  </si>
+  <si>
+    <t>1.28  </t>
+  </si>
+  <si>
+    <t>0000949032</t>
+  </si>
+  <si>
+    <t>0.26  </t>
+  </si>
+  <si>
+    <t>0000949037</t>
+  </si>
+  <si>
+    <t>0000949114</t>
+  </si>
+  <si>
+    <t>0000949120</t>
+  </si>
+  <si>
+    <t>0000949191</t>
+  </si>
+  <si>
+    <t>0.77  </t>
+  </si>
+  <si>
+    <t>0000949201</t>
+  </si>
+  <si>
+    <t>4084.32</t>
+  </si>
+  <si>
+    <t>4085.09</t>
+  </si>
+  <si>
+    <t>4085.35</t>
+  </si>
+  <si>
+    <t>4085.61</t>
+  </si>
+  <si>
+    <t>4085.87</t>
+  </si>
+  <si>
+    <t>4086.13</t>
+  </si>
+  <si>
+    <t>4087.41</t>
+  </si>
+  <si>
+    <t>4107.41</t>
   </si>
 </sst>
 </file>
@@ -601,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H1" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,34 +673,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H4" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; '  TRANSFERENCIA INTERNET', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0003049433', 'mo_oficina' =&gt; 'AG. NORTE', 'mo_monto' =&gt; 67.76  , 'mo_saldo' =&gt; 4084.06, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4107.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -652,25 +709,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949403', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4016.30, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949007', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.28  , 'mo_saldo' =&gt; 4087.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41688</v>
+        <v>41697</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -679,25 +736,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949696', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4016.05, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949032', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4086.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -706,25 +763,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949988', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.25  , 'mo_saldo' =&gt; 4015.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-02-20 13:28:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949037', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41684</v>
+        <v>41695</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -733,21 +790,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949114', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41683</v>
+        <v>41694</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -756,21 +817,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949120', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41682</v>
+        <v>41691</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -779,21 +844,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949191', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4085.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41681</v>
+        <v>41690</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -802,44 +871,48 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>96</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949201', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4084.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41680</v>
+        <v>41690</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41677</v>
+        <v>41689</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -848,21 +921,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41676</v>
+        <v>41688</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -871,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -880,12 +953,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41675</v>
+        <v>41687</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -894,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -903,12 +976,12 @@
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41674</v>
+        <v>41684</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -917,44 +990,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41674</v>
+        <v>41683</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41673</v>
+        <v>41682</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -963,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -972,12 +1045,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41670</v>
+        <v>41681</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -986,21 +1059,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41669</v>
+        <v>41680</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1009,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1018,12 +1091,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41668</v>
+        <v>41677</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1032,21 +1105,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41667</v>
+        <v>41676</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1055,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1064,12 +1137,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41666</v>
+        <v>41675</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1078,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1087,58 +1160,58 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41662</v>
+        <v>41673</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1147,21 +1220,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1170,21 +1243,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41660</v>
+        <v>41669</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1193,21 +1266,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41659</v>
+        <v>41668</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1216,21 +1289,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41656</v>
+        <v>41667</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1239,21 +1312,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41655</v>
+        <v>41666</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1262,44 +1335,44 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41654</v>
+        <v>41666</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1308,21 +1381,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1331,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1340,35 +1413,35 @@
         <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41649</v>
+        <v>41660</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1377,21 +1450,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41648</v>
+        <v>41659</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1400,21 +1473,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41647</v>
+        <v>41656</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1423,21 +1496,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41646</v>
+        <v>41655</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1446,21 +1519,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41645</v>
+        <v>41654</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1469,21 +1542,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41642</v>
+        <v>41653</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1492,52 +1565,236 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>41641</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4107.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4107.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949007', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.28  , 'mo_saldo' =&gt; 4087.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949007', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.28  , 'mo_saldo' =&gt; 4087.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949032', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4086.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949032', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4086.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949037', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949037', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949114', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949114', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949120', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949120', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949191', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4085.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949191', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4085.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949201', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4084.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-01 21:38:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949201', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4084.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -336,6 +336,24 @@
   </si>
   <si>
     <t>4107.41</t>
+  </si>
+  <si>
+    <t>0000950893</t>
+  </si>
+  <si>
+    <t>0000950966</t>
+  </si>
+  <si>
+    <t>0000948989</t>
+  </si>
+  <si>
+    <t>4108.70</t>
+  </si>
+  <si>
+    <t>4107.93</t>
+  </si>
+  <si>
+    <t>4107.67</t>
   </si>
 </sst>
 </file>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H8"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,34 +691,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H8" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948980', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4107.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950893', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4108.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41698</v>
+        <v>41704</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -709,25 +727,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949007', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.28  , 'mo_saldo' =&gt; 4087.41, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950966', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4107.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -736,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -745,43 +763,39 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949032', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4086.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948989', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4107.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949037', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.87, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41695</v>
+        <v>41698</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -790,25 +804,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949114', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.61, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41694</v>
+        <v>41697</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -817,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -826,16 +836,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949120', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4085.35, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41691</v>
+        <v>41696</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -844,25 +850,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949191', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4085.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -871,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -880,39 +882,35 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-02-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000949201', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4084.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-05 20:11:00'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41689</v>
+        <v>41691</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -921,21 +919,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -944,44 +942,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -990,21 +988,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41683</v>
+        <v>41688</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1013,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1022,12 +1020,12 @@
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1036,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1045,12 +1043,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1059,21 +1057,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1082,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1091,12 +1089,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1105,21 +1103,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1128,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1137,12 +1135,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1151,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1160,12 +1158,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1174,44 +1172,44 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1220,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1229,12 +1227,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1243,44 +1241,44 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1289,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1298,12 +1296,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1312,21 +1310,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1335,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1344,35 +1342,35 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1381,21 +1379,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1404,44 +1402,44 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1450,21 +1448,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1482,12 +1480,12 @@
         <v>16</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1502,15 +1500,15 @@
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1528,12 +1526,12 @@
         <v>16</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1542,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1551,12 +1549,12 @@
         <v>16</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1565,21 +1563,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1588,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1597,35 +1595,35 @@
         <v>16</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1634,21 +1632,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1657,44 +1655,44 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1703,21 +1701,21 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1726,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -1735,12 +1733,12 @@
         <v>24</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1749,21 +1747,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1772,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1781,20 +1779,89 @@
         <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="114">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>4107.67</t>
+  </si>
+  <si>
+    <t>0000950877</t>
+  </si>
+  <si>
+    <t>0000950884</t>
+  </si>
+  <si>
+    <t>4108.96</t>
+  </si>
+  <si>
+    <t>4109.22</t>
   </si>
 </sst>
 </file>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41705</v>
+        <v>41709</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -700,25 +712,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950893', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4108.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950877', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41704</v>
+        <v>41708</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -727,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -736,16 +748,16 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950966', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4107.93, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950884', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4108.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -754,48 +766,44 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000948989', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4107.67, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-10 08:49:36'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -804,44 +812,44 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -850,21 +858,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41695</v>
+        <v>41697</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -873,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -882,12 +890,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41694</v>
+        <v>41696</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -896,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -905,12 +913,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41691</v>
+        <v>41695</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -919,21 +927,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -942,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -951,35 +959,35 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -988,44 +996,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1034,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1043,12 +1051,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41684</v>
+        <v>41688</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1057,21 +1065,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41683</v>
+        <v>41687</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1080,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1089,12 +1097,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1103,21 +1111,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41681</v>
+        <v>41683</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1126,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1135,12 +1143,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1149,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1158,12 +1166,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1172,21 +1180,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1195,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1204,12 +1212,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1218,21 +1226,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1241,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1250,35 +1258,35 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1287,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1296,35 +1304,35 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41669</v>
+        <v>41673</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1333,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1342,12 +1350,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41668</v>
+        <v>41670</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1356,21 +1364,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41667</v>
+        <v>41669</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1379,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1388,12 +1396,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1402,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1411,35 +1419,35 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1454,38 +1462,38 @@
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1494,21 +1502,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41660</v>
+        <v>41662</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1526,12 +1534,12 @@
         <v>16</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41659</v>
+        <v>41661</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1549,12 +1557,12 @@
         <v>16</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1569,15 +1577,15 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1595,12 +1603,12 @@
         <v>16</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1609,21 +1617,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1632,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1641,12 +1649,12 @@
         <v>16</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1655,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1664,35 +1672,35 @@
         <v>16</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1701,44 +1709,44 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41647</v>
+        <v>41649</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1747,21 +1755,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41646</v>
+        <v>41648</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1770,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1779,12 +1787,12 @@
         <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1793,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -1802,12 +1810,12 @@
         <v>24</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41642</v>
+        <v>41646</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1822,15 +1830,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41641</v>
+        <v>41645</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1839,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1848,20 +1856,66 @@
         <v>24</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -366,6 +366,24 @@
   </si>
   <si>
     <t>4109.22</t>
+  </si>
+  <si>
+    <t>0000950855</t>
+  </si>
+  <si>
+    <t>0000950868</t>
+  </si>
+  <si>
+    <t>0000950874</t>
+  </si>
+  <si>
+    <t>4109.48</t>
+  </si>
+  <si>
+    <t>4109.74</t>
+  </si>
+  <si>
+    <t>4110.51</t>
   </si>
 </sst>
 </file>
@@ -688,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -712,25 +730,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950877', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950855', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4110.51, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -739,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -748,16 +766,16 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-10'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950884', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4108.96, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-12 20:56:42'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950868', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41705</v>
+        <v>41710</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -766,21 +784,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950874', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41704</v>
+        <v>41709</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -789,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -798,12 +820,12 @@
         <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -812,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -821,35 +843,35 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41698</v>
+        <v>41704</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -858,21 +880,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -881,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -890,35 +912,35 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41695</v>
+        <v>41698</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -927,21 +949,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41694</v>
+        <v>41697</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -950,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -959,12 +981,12 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41691</v>
+        <v>41696</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -973,21 +995,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -996,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1005,35 +1027,35 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41689</v>
+        <v>41691</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1042,21 +1064,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1065,44 +1087,44 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1111,21 +1133,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41683</v>
+        <v>41688</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1134,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1143,12 +1165,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1157,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1166,12 +1188,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1180,21 +1202,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1203,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1212,12 +1234,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1226,21 +1248,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1249,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1258,12 +1280,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1272,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1281,12 +1303,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1295,44 +1317,44 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1341,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1350,12 +1372,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1364,44 +1386,44 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1410,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1419,12 +1441,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1433,21 +1455,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1456,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1465,35 +1487,35 @@
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1502,21 +1524,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1525,44 +1547,44 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1571,21 +1593,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1603,12 +1625,12 @@
         <v>16</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1623,15 +1645,15 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1649,12 +1671,12 @@
         <v>16</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1663,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1672,12 +1694,12 @@
         <v>16</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1686,21 +1708,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1709,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1718,35 +1740,35 @@
         <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1755,21 +1777,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1778,44 +1800,44 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1824,21 +1846,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1847,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1856,12 +1878,12 @@
         <v>24</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1870,21 +1892,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1893,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -1902,20 +1924,89 @@
         <v>24</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="126">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -384,6 +384,24 @@
   </si>
   <si>
     <t>4110.51</t>
+  </si>
+  <si>
+    <t>0000950820</t>
+  </si>
+  <si>
+    <t>0000950832</t>
+  </si>
+  <si>
+    <t>0000950846</t>
+  </si>
+  <si>
+    <t>4110.77</t>
+  </si>
+  <si>
+    <t>4111.03</t>
+  </si>
+  <si>
+    <t>4111.29</t>
   </si>
 </sst>
 </file>
@@ -706,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H3"/>
@@ -721,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41712</v>
+        <v>41717</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -730,25 +748,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950855', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4110.51, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950820', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41711</v>
+        <v>41716</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -757,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -766,16 +784,16 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950868', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950832', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41710</v>
+        <v>41715</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -784,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -793,16 +811,16 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950874', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4109.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-15 10:09:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950846', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4110.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -811,21 +829,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -834,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -843,12 +861,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41705</v>
+        <v>41710</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -857,21 +875,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41704</v>
+        <v>41709</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -880,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -889,12 +907,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -903,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -912,35 +930,35 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41698</v>
+        <v>41704</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -949,21 +967,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -972,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -981,35 +999,35 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41695</v>
+        <v>41698</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1018,21 +1036,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41694</v>
+        <v>41697</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1041,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1050,12 +1068,12 @@
         <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41691</v>
+        <v>41696</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1064,21 +1082,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1087,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1096,35 +1114,35 @@
         <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41689</v>
+        <v>41691</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1133,21 +1151,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1156,44 +1174,44 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1202,21 +1220,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41683</v>
+        <v>41688</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1225,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1234,12 +1252,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1248,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1257,12 +1275,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1271,21 +1289,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1294,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1303,12 +1321,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1317,21 +1335,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1340,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1349,12 +1367,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1363,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1372,12 +1390,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1386,44 +1404,44 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1432,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1441,12 +1459,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1455,44 +1473,44 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1501,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1510,12 +1528,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1524,21 +1542,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1547,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1556,35 +1574,35 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1593,21 +1611,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1616,44 +1634,44 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1662,21 +1680,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1694,12 +1712,12 @@
         <v>16</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1714,15 +1732,15 @@
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1740,12 +1758,12 @@
         <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1754,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -1763,12 +1781,12 @@
         <v>16</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1777,21 +1795,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1800,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1809,35 +1827,35 @@
         <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1846,21 +1864,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1869,44 +1887,44 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1915,21 +1933,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1938,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1947,12 +1965,12 @@
         <v>24</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1961,21 +1979,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1984,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -1993,20 +2011,89 @@
         <v>24</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="130">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t>4111.29</t>
+  </si>
+  <si>
+    <t>0000950807</t>
+  </si>
+  <si>
+    <t>0000950813</t>
+  </si>
+  <si>
+    <t>4111.55</t>
+  </si>
+  <si>
+    <t>4112.32</t>
   </si>
 </sst>
 </file>
@@ -724,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -748,25 +760,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950820', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950807', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4112.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-22 14:12:58'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -775,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -784,16 +796,16 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-18'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950832', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950813', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-22 14:12:58'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -802,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -811,16 +823,12 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950846', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4110.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-20 11:14:34'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41712</v>
+        <v>41716</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -829,21 +837,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -852,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -861,12 +869,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41710</v>
+        <v>41712</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -875,21 +883,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -898,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -907,12 +915,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41708</v>
+        <v>41710</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -921,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -930,12 +938,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41705</v>
+        <v>41709</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -944,21 +952,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41704</v>
+        <v>41708</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -967,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -976,12 +984,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -990,44 +998,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1036,44 +1044,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1082,21 +1090,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41695</v>
+        <v>41697</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1105,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1114,12 +1122,12 @@
         <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41694</v>
+        <v>41696</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1128,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1137,12 +1145,12 @@
         <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41691</v>
+        <v>41695</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1151,21 +1159,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1174,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1183,35 +1191,35 @@
         <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1220,44 +1228,44 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1266,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1275,12 +1283,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41684</v>
+        <v>41688</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1289,21 +1297,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41683</v>
+        <v>41687</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1312,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1321,12 +1329,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1335,21 +1343,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41681</v>
+        <v>41683</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1358,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1367,12 +1375,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1381,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1390,12 +1398,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1404,21 +1412,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1427,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1436,12 +1444,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1450,21 +1458,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1473,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1482,35 +1490,35 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1519,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1528,35 +1536,35 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41669</v>
+        <v>41673</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1565,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1574,12 +1582,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41668</v>
+        <v>41670</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1588,21 +1596,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41667</v>
+        <v>41669</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1611,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1620,12 +1628,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1634,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1643,35 +1651,35 @@
         <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1686,38 +1694,38 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1726,21 +1734,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41660</v>
+        <v>41662</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1758,12 +1766,12 @@
         <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41659</v>
+        <v>41661</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1781,12 +1789,12 @@
         <v>16</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1801,15 +1809,15 @@
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1827,12 +1835,12 @@
         <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1841,21 +1849,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1864,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -1873,12 +1881,12 @@
         <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1887,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1896,35 +1904,35 @@
         <v>16</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1933,44 +1941,44 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41647</v>
+        <v>41649</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1979,21 +1987,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41646</v>
+        <v>41648</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2002,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2011,12 +2019,12 @@
         <v>24</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2025,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2034,12 +2042,12 @@
         <v>24</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41642</v>
+        <v>41646</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2054,15 +2062,15 @@
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41641</v>
+        <v>41645</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2071,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2080,20 +2088,66 @@
         <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -772,8 +772,8 @@
         <v>129</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950807', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4112.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-22 14:12:58'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950807', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4112.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950813', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-22 14:12:58'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950813', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>4112.32</t>
+  </si>
+  <si>
+    <t>0000950798</t>
+  </si>
+  <si>
+    <t>4112.58</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -751,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -760,25 +766,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950807', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4112.32, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950798', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4112.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -787,25 +793,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950813', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4111.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-24 16:57:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -814,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -823,12 +825,12 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -837,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -846,12 +848,12 @@
         <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -860,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -869,12 +871,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -883,21 +885,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -906,21 +908,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -929,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -938,12 +940,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -952,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -961,12 +963,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -975,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -984,12 +986,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -998,21 +1000,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1021,21 +1023,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1044,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1053,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,50 +1063,50 @@
         <v>41703</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1113,21 +1115,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1136,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1145,12 +1147,12 @@
         <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1159,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1168,12 +1170,12 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1182,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1191,12 +1193,12 @@
         <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1205,21 +1207,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1228,16 +1230,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,50 +1247,50 @@
         <v>41690</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1297,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1306,12 +1308,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1320,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1329,12 +1331,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1343,21 +1345,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1366,21 +1368,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1389,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1398,12 +1400,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1412,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1421,12 +1423,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1435,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1444,12 +1446,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1458,21 +1460,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1481,21 +1483,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1504,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1513,12 +1515,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1527,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1536,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,50 +1546,50 @@
         <v>41674</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1596,21 +1598,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1619,21 +1621,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1642,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1651,12 +1653,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1665,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1674,12 +1676,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1688,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1697,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,50 +1707,50 @@
         <v>41666</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1757,21 +1759,21 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1789,12 +1791,12 @@
         <v>16</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1812,12 +1814,12 @@
         <v>16</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1835,12 +1837,12 @@
         <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1855,15 +1857,15 @@
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1878,15 +1880,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1895,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -1904,12 +1906,12 @@
         <v>16</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1918,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -1927,12 +1929,12 @@
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1941,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -1950,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,50 +1960,50 @@
         <v>41652</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2016,15 +2018,15 @@
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2033,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2042,12 +2044,12 @@
         <v>24</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2056,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2065,12 +2067,12 @@
         <v>24</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2088,12 +2090,12 @@
         <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2108,37 +2110,57 @@
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>41641</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -2148,6 +2170,9 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="134">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>4112.58</t>
+  </si>
+  <si>
+    <t>0000950793</t>
+  </si>
+  <si>
+    <t>4112.84</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -757,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -775,16 +781,16 @@
         <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-24'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950798', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4112.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-25 16:15:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950793', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4112.84, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-26 15:37:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -793,21 +799,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -816,21 +822,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -839,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -848,12 +854,12 @@
         <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -862,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -871,12 +877,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -885,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -894,12 +900,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -908,21 +914,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -931,21 +937,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -954,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -963,12 +969,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -977,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -986,12 +992,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1000,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1009,12 +1015,12 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1023,21 +1029,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1046,21 +1052,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1069,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1078,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,50 +1092,50 @@
         <v>41703</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1138,21 +1144,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1161,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1170,12 +1176,12 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1184,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1193,12 +1199,12 @@
         <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1207,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1216,12 +1222,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1230,21 +1236,21 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1253,16 +1259,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,50 +1276,50 @@
         <v>41690</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1322,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1331,12 +1337,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1345,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1354,12 +1360,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1368,21 +1374,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1391,21 +1397,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1414,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1423,12 +1429,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1446,12 +1452,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1460,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1469,12 +1475,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1483,21 +1489,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1506,21 +1512,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1529,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1538,12 +1544,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1552,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1561,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1569,50 +1575,50 @@
         <v>41674</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1621,21 +1627,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1644,21 +1650,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1667,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1676,12 +1682,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1690,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1699,12 +1705,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1713,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1722,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1730,50 +1736,50 @@
         <v>41666</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1782,21 +1788,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1814,12 +1820,12 @@
         <v>16</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1837,12 +1843,12 @@
         <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1860,12 +1866,12 @@
         <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1880,15 +1886,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1903,15 +1909,15 @@
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1920,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -1929,12 +1935,12 @@
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1943,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -1952,12 +1958,12 @@
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1966,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1975,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,50 +1989,50 @@
         <v>41652</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2041,15 +2047,15 @@
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2058,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2067,12 +2073,12 @@
         <v>24</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2081,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2090,12 +2096,12 @@
         <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2113,12 +2119,12 @@
         <v>24</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2133,37 +2139,57 @@
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>41641</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2173,6 +2199,9 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="136">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>4112.84</t>
+  </si>
+  <si>
+    <t>0000950781</t>
+  </si>
+  <si>
+    <t>4113.10</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -763,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -772,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -781,16 +787,16 @@
         <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-25'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950793', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4112.84, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-26 15:37:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950781', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4113.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 08:47:09'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -799,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -808,12 +814,12 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -822,21 +828,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -845,21 +851,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -868,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -877,12 +883,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -891,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -900,12 +906,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -914,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -923,12 +929,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -937,21 +943,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -960,21 +966,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -983,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -992,12 +998,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1006,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1015,12 +1021,12 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1029,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1038,12 +1044,12 @@
         <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1052,21 +1058,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1075,21 +1081,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1098,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1107,7 +1113,7 @@
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,50 +1121,50 @@
         <v>41703</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1167,21 +1173,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1190,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1199,12 +1205,12 @@
         <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1213,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1222,12 +1228,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1236,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1245,12 +1251,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1259,21 +1265,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1282,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,50 +1305,50 @@
         <v>41690</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1351,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1360,12 +1366,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1374,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1383,12 +1389,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1397,21 +1403,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1420,21 +1426,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1443,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1452,12 +1458,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1475,12 +1481,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1489,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1498,12 +1504,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1512,21 +1518,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1535,21 +1541,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1558,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1567,12 +1573,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1581,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1590,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,50 +1604,50 @@
         <v>41674</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1650,21 +1656,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1673,21 +1679,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1705,12 +1711,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1719,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1728,12 +1734,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1742,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1751,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1759,50 +1765,50 @@
         <v>41666</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1811,21 +1817,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1843,12 +1849,12 @@
         <v>16</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1866,12 +1872,12 @@
         <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1889,12 +1895,12 @@
         <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1909,15 +1915,15 @@
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1932,15 +1938,15 @@
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1949,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -1958,12 +1964,12 @@
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1972,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1981,12 +1987,12 @@
         <v>16</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2004,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,50 +2018,50 @@
         <v>41652</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2070,15 +2076,15 @@
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2087,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2096,12 +2102,12 @@
         <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2110,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2119,12 +2125,12 @@
         <v>24</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2142,12 +2148,12 @@
         <v>24</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2162,37 +2168,57 @@
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>41641</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -2202,6 +2228,9 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dml2\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php-projects\dml2\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,8 +790,8 @@
         <v>135</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950781', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4113.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 08:47:09'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950781', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4113.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 21:16:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>4113.10</t>
+  </si>
+  <si>
+    <t>0000950763</t>
+  </si>
+  <si>
+    <t>4114.13</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -769,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -778,25 +784,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950781', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4113.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-27 21:16:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950763', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4114.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -805,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -814,12 +820,12 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -837,12 +843,12 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -851,21 +857,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -874,21 +880,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -897,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -906,12 +912,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -920,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -929,12 +935,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -943,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -952,12 +958,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -966,21 +972,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -989,21 +995,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1012,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1021,12 +1027,12 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1035,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1044,12 +1050,12 @@
         <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1058,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1067,12 +1073,12 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1081,21 +1087,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1104,21 +1110,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1127,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1136,7 +1142,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,50 +1150,50 @@
         <v>41703</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1196,21 +1202,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1219,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1228,12 +1234,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1242,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1251,12 +1257,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1265,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1274,12 +1280,12 @@
         <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1288,21 +1294,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1311,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,50 +1334,50 @@
         <v>41690</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1380,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1389,12 +1395,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1403,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1412,12 +1418,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1426,21 +1432,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1449,21 +1455,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1472,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1481,12 +1487,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1495,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1504,12 +1510,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1518,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1527,12 +1533,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1541,21 +1547,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1564,21 +1570,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1587,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1596,12 +1602,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1610,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1619,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,50 +1633,50 @@
         <v>41674</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1679,21 +1685,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1702,21 +1708,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1725,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1734,12 +1740,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1748,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1757,12 +1763,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1771,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1780,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,50 +1794,50 @@
         <v>41666</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1840,21 +1846,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1872,12 +1878,12 @@
         <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1895,12 +1901,12 @@
         <v>16</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1918,12 +1924,12 @@
         <v>16</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1938,15 +1944,15 @@
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1961,15 +1967,15 @@
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1978,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -1987,12 +1993,12 @@
         <v>16</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2001,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2010,12 +2016,12 @@
         <v>16</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2024,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2033,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,50 +2047,50 @@
         <v>41652</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2099,15 +2105,15 @@
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2116,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2125,12 +2131,12 @@
         <v>24</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2139,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2148,12 +2154,12 @@
         <v>24</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2171,12 +2177,12 @@
         <v>24</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2191,37 +2197,57 @@
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>41641</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2231,6 +2257,9 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -438,6 +438,51 @@
   </si>
   <si>
     <t>4114.13</t>
+  </si>
+  <si>
+    <t>0000950727</t>
+  </si>
+  <si>
+    <t>0000950730</t>
+  </si>
+  <si>
+    <t>4114.39</t>
+  </si>
+  <si>
+    <t>4114.65</t>
+  </si>
+  <si>
+    <t>0000950714</t>
+  </si>
+  <si>
+    <t>0.78  </t>
+  </si>
+  <si>
+    <t>0000100953</t>
+  </si>
+  <si>
+    <t>0000950718</t>
+  </si>
+  <si>
+    <t>0000950725</t>
+  </si>
+  <si>
+    <t>4114.91</t>
+  </si>
+  <si>
+    <t>4115.17</t>
+  </si>
+  <si>
+    <t>4135.17</t>
+  </si>
+  <si>
+    <t>4135.95</t>
+  </si>
+  <si>
+    <t>0000950708</t>
+  </si>
+  <si>
+    <t>4136.21</t>
   </si>
 </sst>
 </file>
@@ -760,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41726</v>
+        <v>41736</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -784,25 +829,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-03-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950763', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.77  , 'mo_saldo' =&gt; 4114.13, 'mo_fecha_crea' =&gt; new \DateTime('2014-03-30 18:47:16'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950708', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4136.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41724</v>
+        <v>41733</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -811,44 +856,52 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950714', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4135.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41723</v>
+        <v>41733</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000100953', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4135.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41722</v>
+        <v>41732</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -857,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -866,12 +919,16 @@
         <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950718', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4115.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41719</v>
+        <v>41731</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -880,21 +937,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950725', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4114.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41718</v>
+        <v>41730</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -903,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -912,12 +973,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41717</v>
+        <v>41729</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -926,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -935,12 +996,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41716</v>
+        <v>41726</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -949,21 +1010,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41715</v>
+        <v>41724</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -972,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -981,12 +1042,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41712</v>
+        <v>41723</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -995,21 +1056,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41711</v>
+        <v>41722</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1018,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1027,12 +1088,12 @@
         <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41710</v>
+        <v>41719</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1041,21 +1102,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41709</v>
+        <v>41718</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1064,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1073,12 +1134,12 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41708</v>
+        <v>41717</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1087,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1096,12 +1157,12 @@
         <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41705</v>
+        <v>41716</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1110,21 +1171,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41704</v>
+        <v>41715</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1133,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1142,12 +1203,12 @@
         <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1156,44 +1217,44 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41703</v>
+        <v>41711</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41698</v>
+        <v>41710</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1202,21 +1263,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41697</v>
+        <v>41709</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1225,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1234,12 +1295,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41696</v>
+        <v>41708</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1248,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1257,12 +1318,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41695</v>
+        <v>41705</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1271,21 +1332,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41694</v>
+        <v>41704</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1294,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1303,12 +1364,12 @@
         <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41691</v>
+        <v>41703</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1317,67 +1378,67 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41690</v>
+        <v>41698</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41689</v>
+        <v>41697</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1386,21 +1447,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41688</v>
+        <v>41696</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1409,21 +1470,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41687</v>
+        <v>41695</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1432,21 +1493,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41684</v>
+        <v>41694</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1455,21 +1516,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41683</v>
+        <v>41691</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1478,21 +1539,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41682</v>
+        <v>41690</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1501,44 +1562,44 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41681</v>
+        <v>41690</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41680</v>
+        <v>41689</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1547,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1556,12 +1617,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41677</v>
+        <v>41688</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1570,21 +1631,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41676</v>
+        <v>41687</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1593,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1602,12 +1663,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41675</v>
+        <v>41684</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1616,21 +1677,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41674</v>
+        <v>41683</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1639,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1648,35 +1709,35 @@
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41674</v>
+        <v>41682</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41673</v>
+        <v>41681</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1685,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1694,12 +1755,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41670</v>
+        <v>41680</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1708,21 +1769,21 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41669</v>
+        <v>41677</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1731,21 +1792,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41668</v>
+        <v>41676</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1754,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1763,12 +1824,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41667</v>
+        <v>41675</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1777,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1786,12 +1847,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1800,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -1809,35 +1870,35 @@
         <v>10</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41663</v>
+        <v>41673</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1846,21 +1907,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41662</v>
+        <v>41670</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1869,21 +1930,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41661</v>
+        <v>41669</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1892,21 +1953,21 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41660</v>
+        <v>41668</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1915,21 +1976,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41659</v>
+        <v>41667</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1938,21 +1999,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41656</v>
+        <v>41666</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1961,44 +2022,44 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41655</v>
+        <v>41666</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41654</v>
+        <v>41663</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2007,21 +2068,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41653</v>
+        <v>41662</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2030,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2039,12 +2100,12 @@
         <v>16</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2053,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2062,35 +2123,35 @@
         <v>16</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41652</v>
+        <v>41660</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41649</v>
+        <v>41659</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2099,21 +2160,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41648</v>
+        <v>41656</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2122,21 +2183,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41647</v>
+        <v>41655</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2145,21 +2206,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41646</v>
+        <v>41654</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2168,21 +2229,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41645</v>
+        <v>41653</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2191,21 +2252,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41642</v>
+        <v>41652</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2214,52 +2275,213 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>41641</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="170">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -483,6 +483,57 @@
   </si>
   <si>
     <t>4136.21</t>
+  </si>
+  <si>
+    <t>0000950703</t>
+  </si>
+  <si>
+    <t>4136.47</t>
+  </si>
+  <si>
+    <t>0000950693</t>
+  </si>
+  <si>
+    <t>0000950698</t>
+  </si>
+  <si>
+    <t>4136.73</t>
+  </si>
+  <si>
+    <t>4136.99</t>
+  </si>
+  <si>
+    <t>0000858370</t>
+  </si>
+  <si>
+    <t>1.03  </t>
+  </si>
+  <si>
+    <t>0000858373</t>
+  </si>
+  <si>
+    <t>0000858375</t>
+  </si>
+  <si>
+    <t>0000858384</t>
+  </si>
+  <si>
+    <t>0000950688</t>
+  </si>
+  <si>
+    <t>4137.77</t>
+  </si>
+  <si>
+    <t>4138.03</t>
+  </si>
+  <si>
+    <t>4138.29</t>
+  </si>
+  <si>
+    <t>4138.55</t>
+  </si>
+  <si>
+    <t>4139.58</t>
   </si>
 </sst>
 </file>
@@ -805,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H5"/>
@@ -820,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41736</v>
+        <v>41746</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -829,25 +880,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950708', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4136.21, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858370', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.03  , 'mo_saldo' =&gt; 4139.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41733</v>
+        <v>41745</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -856,52 +907,52 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950714', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4135.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858373', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41733</v>
+        <v>41744</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-04'), 'mo_concepto' =&gt; 'CR AH PROGRAMADO', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000100953', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 20.00  , 'mo_saldo' =&gt; 4135.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858375', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41732</v>
+        <v>41743</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -910,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -919,16 +970,16 @@
         <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-03'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950718', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4115.17, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41731</v>
+        <v>41740</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -937,25 +988,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950725', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4114.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-08 16:14:10'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950688', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4137.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41730</v>
+        <v>41739</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -964,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -973,12 +1024,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41729</v>
+        <v>41738</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -987,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -996,12 +1047,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41726</v>
+        <v>41737</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1010,21 +1061,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41724</v>
+        <v>41736</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1033,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1042,12 +1093,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41723</v>
+        <v>41733</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1056,44 +1107,44 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41722</v>
+        <v>41733</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41719</v>
+        <v>41732</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1102,21 +1153,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41718</v>
+        <v>41731</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1125,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1134,12 +1185,12 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41717</v>
+        <v>41730</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1148,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1157,12 +1208,12 @@
         <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41716</v>
+        <v>41729</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1171,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1180,12 +1231,12 @@
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41715</v>
+        <v>41726</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1194,21 +1245,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41712</v>
+        <v>41724</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1217,21 +1268,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41711</v>
+        <v>41723</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1240,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1249,12 +1300,12 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41710</v>
+        <v>41722</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1263,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1272,12 +1323,12 @@
         <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41709</v>
+        <v>41719</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1286,21 +1337,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41708</v>
+        <v>41718</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1309,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1318,12 +1369,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41705</v>
+        <v>41717</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1332,21 +1383,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41704</v>
+        <v>41716</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1355,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1364,12 +1415,12 @@
         <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41703</v>
+        <v>41715</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1378,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1387,35 +1438,35 @@
         <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41698</v>
+        <v>41711</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1424,21 +1475,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41697</v>
+        <v>41710</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1447,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1456,12 +1507,12 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41696</v>
+        <v>41709</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1470,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1479,12 +1530,12 @@
         <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41695</v>
+        <v>41708</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1493,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1502,12 +1553,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41694</v>
+        <v>41705</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1516,21 +1567,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41691</v>
+        <v>41704</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1539,21 +1590,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1562,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1571,35 +1622,35 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41690</v>
+        <v>41703</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41689</v>
+        <v>41698</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1608,21 +1659,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41688</v>
+        <v>41697</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1631,21 +1682,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1654,21 +1705,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41684</v>
+        <v>41695</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1677,21 +1728,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41683</v>
+        <v>41694</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1700,21 +1751,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41682</v>
+        <v>41691</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1723,21 +1774,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41681</v>
+        <v>41690</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1746,44 +1797,44 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41680</v>
+        <v>41690</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41677</v>
+        <v>41689</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1792,21 +1843,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41676</v>
+        <v>41688</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1815,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1824,12 +1875,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41675</v>
+        <v>41687</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1838,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1847,12 +1898,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41674</v>
+        <v>41684</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1861,44 +1912,44 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41674</v>
+        <v>41683</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41673</v>
+        <v>41682</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1907,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1916,12 +1967,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41670</v>
+        <v>41681</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1930,21 +1981,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41669</v>
+        <v>41680</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1953,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -1962,12 +2013,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41668</v>
+        <v>41677</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1976,21 +2027,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41667</v>
+        <v>41676</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1999,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2008,12 +2059,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41666</v>
+        <v>41675</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2022,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2031,58 +2082,58 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41666</v>
+        <v>41674</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41663</v>
+        <v>41674</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41662</v>
+        <v>41673</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2091,21 +2142,21 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41661</v>
+        <v>41670</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2114,21 +2165,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41660</v>
+        <v>41669</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2137,21 +2188,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41659</v>
+        <v>41668</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2160,21 +2211,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41656</v>
+        <v>41667</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2183,21 +2234,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41655</v>
+        <v>41666</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2206,44 +2257,44 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41654</v>
+        <v>41666</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41653</v>
+        <v>41663</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2252,21 +2303,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41652</v>
+        <v>41662</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2275,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2284,35 +2335,35 @@
         <v>16</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41652</v>
+        <v>41661</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41649</v>
+        <v>41660</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2321,21 +2372,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41648</v>
+        <v>41659</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2344,21 +2395,21 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41647</v>
+        <v>41656</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2367,21 +2418,21 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41646</v>
+        <v>41655</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2390,21 +2441,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41645</v>
+        <v>41654</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2413,21 +2464,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41642</v>
+        <v>41653</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2436,52 +2487,236 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>41641</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -893,7 +893,7 @@
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858370', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.03  , 'mo_saldo' =&gt; 4139.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858370', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.03  , 'mo_saldo' =&gt; 4139.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858373', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858373', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858375', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858375', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950688', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4137.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-18 13:44:39'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950688', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4137.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="176">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -534,6 +534,24 @@
   </si>
   <si>
     <t>4139.58</t>
+  </si>
+  <si>
+    <t>0000858352</t>
+  </si>
+  <si>
+    <t>0000858357</t>
+  </si>
+  <si>
+    <t>0000858366</t>
+  </si>
+  <si>
+    <t>4139.84</t>
+  </si>
+  <si>
+    <t>4140.10</t>
+  </si>
+  <si>
+    <t>4140.36</t>
   </si>
 </sst>
 </file>
@@ -856,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H5"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41746</v>
+        <v>41752</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -880,25 +898,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd HH:mm:ss"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-17'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858370', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 1.03  , 'mo_saldo' =&gt; 4139.58, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858352', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4140.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41745</v>
+        <v>41751</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -907,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -916,16 +934,16 @@
         <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858373', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.55, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-22'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858357', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4140.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41744</v>
+        <v>41750</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -934,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -943,16 +961,16 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858375', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.29, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858366', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4139.84, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41743</v>
+        <v>41746</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -961,25 +979,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858384', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4138.03, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41740</v>
+        <v>41745</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -988,25 +1002,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-11'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000950688', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4137.77, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-21 12:20:57'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1015,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1024,12 +1034,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1038,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -1047,12 +1057,12 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1061,21 +1071,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1084,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1093,12 +1103,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1107,44 +1117,44 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1153,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1162,12 +1172,12 @@
         <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1176,44 +1186,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41730</v>
+        <v>41733</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1222,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1231,12 +1241,12 @@
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41726</v>
+        <v>41731</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1245,21 +1255,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41724</v>
+        <v>41730</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1268,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1277,12 +1287,12 @@
         <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41723</v>
+        <v>41729</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1291,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1300,12 +1310,12 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41722</v>
+        <v>41726</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1314,21 +1324,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1337,21 +1347,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41718</v>
+        <v>41723</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1360,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1369,12 +1379,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1383,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1392,12 +1402,12 @@
         <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41716</v>
+        <v>41719</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1406,21 +1416,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1429,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1438,12 +1448,12 @@
         <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41712</v>
+        <v>41717</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1452,21 +1462,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41711</v>
+        <v>41716</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1475,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1484,12 +1494,12 @@
         <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41710</v>
+        <v>41715</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1498,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1507,12 +1517,12 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1521,21 +1531,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1544,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1553,12 +1563,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41705</v>
+        <v>41710</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1567,21 +1577,21 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41704</v>
+        <v>41709</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1590,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1599,12 +1609,12 @@
         <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1613,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1622,35 +1632,35 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41698</v>
+        <v>41704</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1659,21 +1669,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1682,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1691,35 +1701,35 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41695</v>
+        <v>41698</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1728,21 +1738,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41694</v>
+        <v>41697</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1751,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1760,12 +1770,12 @@
         <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41691</v>
+        <v>41696</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1774,21 +1784,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1797,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1806,35 +1816,35 @@
         <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41689</v>
+        <v>41691</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1843,21 +1853,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1866,44 +1876,44 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1912,21 +1922,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41683</v>
+        <v>41688</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1935,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -1944,12 +1954,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1958,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1967,12 +1977,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1981,21 +1991,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2004,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2013,12 +2023,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2027,21 +2037,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2050,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2059,12 +2069,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2073,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2082,12 +2092,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2096,44 +2106,44 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2142,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2151,12 +2161,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2165,44 +2175,44 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2211,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2220,12 +2230,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2234,21 +2244,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2257,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2266,35 +2276,35 @@
         <v>10</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2303,21 +2313,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2326,44 +2336,44 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2372,21 +2382,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2404,12 +2414,12 @@
         <v>16</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2424,15 +2434,15 @@
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2450,12 +2460,12 @@
         <v>16</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2464,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2473,12 +2483,12 @@
         <v>16</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2487,21 +2497,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2510,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2519,35 +2529,35 @@
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2556,21 +2566,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2579,44 +2589,44 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2625,21 +2635,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2648,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2657,12 +2667,12 @@
         <v>24</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2671,21 +2681,21 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2694,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -2703,20 +2713,89 @@
         <v>24</v>
       </c>
       <c r="G79" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="182">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -552,6 +552,24 @@
   </si>
   <si>
     <t>4140.36</t>
+  </si>
+  <si>
+    <t>0000858328</t>
+  </si>
+  <si>
+    <t>0000858343</t>
+  </si>
+  <si>
+    <t>4140.62</t>
+  </si>
+  <si>
+    <t>4141.40</t>
+  </si>
+  <si>
+    <t>0000858323</t>
+  </si>
+  <si>
+    <t>4141.66</t>
   </si>
 </sst>
 </file>
@@ -874,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41752</v>
+        <v>41757</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -898,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -907,16 +925,16 @@
         <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858352', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4140.36, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4141.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41751</v>
+        <v>41754</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -925,25 +943,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-22'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858357', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4140.10, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41750</v>
+        <v>41753</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -952,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -961,16 +975,12 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858366', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4139.84, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-24 20:19:38'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41746</v>
+        <v>41752</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -979,21 +989,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41745</v>
+        <v>41751</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1002,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1011,12 +1021,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41744</v>
+        <v>41750</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1025,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1034,12 +1044,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41743</v>
+        <v>41746</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1048,21 +1058,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41740</v>
+        <v>41745</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1071,21 +1081,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41739</v>
+        <v>41744</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1094,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1103,12 +1113,12 @@
         <v>89</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41738</v>
+        <v>41743</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1117,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1126,12 +1136,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41737</v>
+        <v>41740</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1140,21 +1150,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1163,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1172,12 +1182,12 @@
         <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41733</v>
+        <v>41738</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1186,44 +1196,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41732</v>
+        <v>41736</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1232,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1241,12 +1251,12 @@
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1255,44 +1265,44 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41730</v>
+        <v>41733</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41729</v>
+        <v>41732</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1301,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1310,12 +1320,12 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41726</v>
+        <v>41731</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1324,21 +1334,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41724</v>
+        <v>41730</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1347,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1356,12 +1366,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41723</v>
+        <v>41729</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1370,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1379,12 +1389,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41722</v>
+        <v>41726</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1393,21 +1403,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41719</v>
+        <v>41724</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1416,21 +1426,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41718</v>
+        <v>41723</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1439,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1448,12 +1458,12 @@
         <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1462,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1471,12 +1481,12 @@
         <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41716</v>
+        <v>41719</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1485,21 +1495,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41715</v>
+        <v>41718</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1508,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1517,12 +1527,12 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41712</v>
+        <v>41717</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1531,21 +1541,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41711</v>
+        <v>41716</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1554,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1563,12 +1573,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41710</v>
+        <v>41715</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1577,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1586,12 +1596,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41709</v>
+        <v>41712</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1600,21 +1610,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1623,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1632,12 +1642,12 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41705</v>
+        <v>41710</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1646,21 +1656,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41704</v>
+        <v>41709</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1669,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1678,12 +1688,12 @@
         <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41703</v>
+        <v>41708</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1692,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1701,35 +1711,35 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41698</v>
+        <v>41704</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1738,21 +1748,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1761,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1770,35 +1780,35 @@
         <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41696</v>
+        <v>41703</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41695</v>
+        <v>41698</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1807,21 +1817,21 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41694</v>
+        <v>41697</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1830,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1839,12 +1849,12 @@
         <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41691</v>
+        <v>41696</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1853,21 +1863,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41690</v>
+        <v>41695</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1876,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1885,35 +1895,35 @@
         <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41689</v>
+        <v>41691</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1922,21 +1932,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1945,44 +1955,44 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41687</v>
+        <v>41690</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41684</v>
+        <v>41689</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1991,21 +2001,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41683</v>
+        <v>41688</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2014,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2023,12 +2033,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2037,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2046,12 +2056,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41681</v>
+        <v>41684</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2060,21 +2070,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41680</v>
+        <v>41683</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2083,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2092,12 +2102,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41677</v>
+        <v>41682</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2106,21 +2116,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41676</v>
+        <v>41681</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2129,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2138,12 +2148,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41675</v>
+        <v>41680</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2152,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2161,12 +2171,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2175,44 +2185,44 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2221,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2230,12 +2240,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2244,44 +2254,44 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41669</v>
+        <v>41674</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41668</v>
+        <v>41673</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2290,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2299,12 +2309,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2313,21 +2323,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41666</v>
+        <v>41669</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2336,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2345,35 +2355,35 @@
         <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41663</v>
+        <v>41667</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2382,21 +2392,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2405,44 +2415,44 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2451,21 +2461,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41659</v>
+        <v>41662</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2483,12 +2493,12 @@
         <v>16</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41656</v>
+        <v>41661</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2503,15 +2513,15 @@
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41655</v>
+        <v>41660</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2529,12 +2539,12 @@
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2543,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -2552,12 +2562,12 @@
         <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2566,21 +2576,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41652</v>
+        <v>41655</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2589,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2598,35 +2608,35 @@
         <v>16</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B75" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41649</v>
+        <v>41653</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2635,21 +2645,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2658,44 +2668,44 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41647</v>
+        <v>41652</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41646</v>
+        <v>41649</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2704,21 +2714,21 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41645</v>
+        <v>41648</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2727,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -2736,12 +2746,12 @@
         <v>24</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41642</v>
+        <v>41647</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2750,21 +2760,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41641</v>
+        <v>41646</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2773,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -2782,20 +2792,89 @@
         <v>24</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="187">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -570,6 +570,21 @@
   </si>
   <si>
     <t>4141.66</t>
+  </si>
+  <si>
+    <t>0000858304</t>
+  </si>
+  <si>
+    <t>0.52  </t>
+  </si>
+  <si>
+    <t>0000858312</t>
+  </si>
+  <si>
+    <t>4141.92</t>
+  </si>
+  <si>
+    <t>4142.44</t>
   </si>
 </sst>
 </file>
@@ -892,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -916,25 +931,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H3" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858323', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4141.66, 'mo_fecha_crea' =&gt; new \DateTime('2014-04-29 15:0:49'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858304', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.52  , 'mo_saldo' =&gt; 4142.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:13:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -943,21 +958,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858312', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4141.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:13:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41753</v>
+        <v>41757</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -966,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -975,12 +994,12 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -989,21 +1008,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1012,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1021,12 +1040,12 @@
         <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41750</v>
+        <v>41752</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1035,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1044,12 +1063,12 @@
         <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41746</v>
+        <v>41751</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1058,21 +1077,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41745</v>
+        <v>41750</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1081,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1090,12 +1109,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1104,21 +1123,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41743</v>
+        <v>41745</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1127,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1136,12 +1155,12 @@
         <v>89</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41740</v>
+        <v>41744</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1150,21 +1169,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41739</v>
+        <v>41743</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1173,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1182,12 +1201,12 @@
         <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1196,21 +1215,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1219,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1228,12 +1247,12 @@
         <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1242,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1251,12 +1270,12 @@
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1265,44 +1284,44 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1311,44 +1330,44 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41730</v>
+        <v>41732</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1357,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1366,12 +1385,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41729</v>
+        <v>41731</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1380,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1389,12 +1408,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41726</v>
+        <v>41730</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1403,21 +1422,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41724</v>
+        <v>41729</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1426,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1435,12 +1454,12 @@
         <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41723</v>
+        <v>41726</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1449,21 +1468,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41722</v>
+        <v>41724</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1472,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1481,12 +1500,12 @@
         <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41719</v>
+        <v>41723</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1495,21 +1514,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41718</v>
+        <v>41722</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1518,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1527,12 +1546,12 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41717</v>
+        <v>41719</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1541,21 +1560,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41716</v>
+        <v>41718</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1564,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1573,12 +1592,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1587,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1596,12 +1615,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41712</v>
+        <v>41716</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1610,21 +1629,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41711</v>
+        <v>41715</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1633,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1642,12 +1661,12 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41710</v>
+        <v>41712</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1656,21 +1675,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41709</v>
+        <v>41711</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1679,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1688,12 +1707,12 @@
         <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41708</v>
+        <v>41710</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1702,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1711,12 +1730,12 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41705</v>
+        <v>41709</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1725,21 +1744,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41704</v>
+        <v>41708</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1748,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1757,12 +1776,12 @@
         <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41703</v>
+        <v>41705</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1771,44 +1790,44 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1817,44 +1836,44 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41697</v>
+        <v>41703</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1863,21 +1882,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41695</v>
+        <v>41697</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1886,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1895,12 +1914,12 @@
         <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41694</v>
+        <v>41696</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1909,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1918,12 +1937,12 @@
         <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41691</v>
+        <v>41695</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1932,21 +1951,21 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41690</v>
+        <v>41694</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1955,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -1964,35 +1983,35 @@
         <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2001,44 +2020,44 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41688</v>
+        <v>41690</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41687</v>
+        <v>41689</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2047,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2056,12 +2075,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41684</v>
+        <v>41688</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2070,21 +2089,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41683</v>
+        <v>41687</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2093,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2102,12 +2121,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41682</v>
+        <v>41684</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2116,21 +2135,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41681</v>
+        <v>41683</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2139,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2148,12 +2167,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41680</v>
+        <v>41682</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2162,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2171,12 +2190,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41677</v>
+        <v>41681</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2185,21 +2204,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41676</v>
+        <v>41680</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2208,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2217,12 +2236,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41675</v>
+        <v>41677</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2231,21 +2250,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41674</v>
+        <v>41676</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2254,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2263,35 +2282,35 @@
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2300,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2309,35 +2328,35 @@
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41670</v>
+        <v>41674</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41669</v>
+        <v>41673</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2346,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2355,12 +2374,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41668</v>
+        <v>41670</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2369,21 +2388,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41667</v>
+        <v>41669</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2392,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2401,12 +2420,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41666</v>
+        <v>41668</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2415,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2424,35 +2443,35 @@
         <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2467,38 +2486,38 @@
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41662</v>
+        <v>41666</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41661</v>
+        <v>41663</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2507,21 +2526,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41660</v>
+        <v>41662</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2539,12 +2558,12 @@
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41659</v>
+        <v>41661</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2562,12 +2581,12 @@
         <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41656</v>
+        <v>41660</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2582,15 +2601,15 @@
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2608,12 +2627,12 @@
         <v>16</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41654</v>
+        <v>41656</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2622,21 +2641,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41653</v>
+        <v>41655</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2645,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2654,12 +2673,12 @@
         <v>16</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41652</v>
+        <v>41654</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2668,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2677,35 +2696,35 @@
         <v>16</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2714,44 +2733,44 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41648</v>
+        <v>41652</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41647</v>
+        <v>41649</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2760,21 +2779,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41646</v>
+        <v>41648</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2783,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -2792,12 +2811,12 @@
         <v>24</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -2806,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -2815,12 +2834,12 @@
         <v>24</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41642</v>
+        <v>41646</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2835,15 +2854,15 @@
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41641</v>
+        <v>41645</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2852,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -2861,20 +2880,66 @@
         <v>24</v>
       </c>
       <c r="G85" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="233">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -585,6 +585,144 @@
   </si>
   <si>
     <t>4142.44</t>
+  </si>
+  <si>
+    <t>0000858125</t>
+  </si>
+  <si>
+    <t>0.53  </t>
+  </si>
+  <si>
+    <t>0000858132</t>
+  </si>
+  <si>
+    <t>0.18  </t>
+  </si>
+  <si>
+    <t>PAGO/RETIRO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>0003268572</t>
+  </si>
+  <si>
+    <t>HOSPITAL METROPOLITANO</t>
+  </si>
+  <si>
+    <t>600.00  </t>
+  </si>
+  <si>
+    <t>0000858229</t>
+  </si>
+  <si>
+    <t>0.21  </t>
+  </si>
+  <si>
+    <t>0000858233</t>
+  </si>
+  <si>
+    <t>0000858237</t>
+  </si>
+  <si>
+    <t>0000858244</t>
+  </si>
+  <si>
+    <t>0.64  </t>
+  </si>
+  <si>
+    <t>0000858251</t>
+  </si>
+  <si>
+    <t>0000858256</t>
+  </si>
+  <si>
+    <t>0000858258</t>
+  </si>
+  <si>
+    <t>0000858263</t>
+  </si>
+  <si>
+    <t>0000858264</t>
+  </si>
+  <si>
+    <t>0000858271</t>
+  </si>
+  <si>
+    <t>0000858283</t>
+  </si>
+  <si>
+    <t>0005465831</t>
+  </si>
+  <si>
+    <t>CENTRO FINANCIERO ORELLANA CFO</t>
+  </si>
+  <si>
+    <t>725.00  </t>
+  </si>
+  <si>
+    <t>0000858288</t>
+  </si>
+  <si>
+    <t>0000858293</t>
+  </si>
+  <si>
+    <t>0000858295</t>
+  </si>
+  <si>
+    <t>4143.22</t>
+  </si>
+  <si>
+    <t>4143.48</t>
+  </si>
+  <si>
+    <t>4143.74</t>
+  </si>
+  <si>
+    <t>3418.74</t>
+  </si>
+  <si>
+    <t>3418.95</t>
+  </si>
+  <si>
+    <t>3419.16</t>
+  </si>
+  <si>
+    <t>3419.80</t>
+  </si>
+  <si>
+    <t>3420.01</t>
+  </si>
+  <si>
+    <t>3420.22</t>
+  </si>
+  <si>
+    <t>3420.43</t>
+  </si>
+  <si>
+    <t>3420.64</t>
+  </si>
+  <si>
+    <t>3421.28</t>
+  </si>
+  <si>
+    <t>3421.49</t>
+  </si>
+  <si>
+    <t>3421.70</t>
+  </si>
+  <si>
+    <t>3421.91</t>
+  </si>
+  <si>
+    <t>2821.91</t>
+  </si>
+  <si>
+    <t>2822.09</t>
+  </si>
+  <si>
+    <t>2822.62</t>
   </si>
 </sst>
 </file>
@@ -907,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H18" sqref="H1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41759</v>
+        <v>41782</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -931,25 +1069,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H2" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858304', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.52  , 'mo_saldo' =&gt; 4142.44, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:13:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H18" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858125', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.53  , 'mo_saldo' =&gt; 2822.62, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41758</v>
+        <v>41781</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -958,48 +1096,52 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-04-29'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858312', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4141.92, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-02 8:13:14'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-22'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858132', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41757</v>
+        <v>41781</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>181</v>
+        <v>230</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-22'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003268572', 'mo_oficina' =&gt; 'HOSPITAL METROPOLITANO', 'mo_monto' =&gt; 600.00  , 'mo_saldo' =&gt; 2821.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41754</v>
+        <v>41780</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1008,21 +1150,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>229</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858229', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41753</v>
+        <v>41779</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1031,21 +1177,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>178</v>
+        <v>228</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858233', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41752</v>
+        <v>41778</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1054,21 +1204,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>175</v>
+        <v>227</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858237', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41751</v>
+        <v>41775</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1077,21 +1231,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>174</v>
+        <v>226</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858244', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.64  , 'mo_saldo' =&gt; 3421.28, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41750</v>
+        <v>41774</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1100,21 +1258,25 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>173</v>
+        <v>225</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858251', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41746</v>
+        <v>41773</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1123,21 +1285,25 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858256', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.43, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41745</v>
+        <v>41772</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1146,21 +1312,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>168</v>
+        <v>223</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858258', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41744</v>
+        <v>41771</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1169,21 +1339,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>167</v>
+        <v>222</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858263', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41743</v>
+        <v>41768</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1192,21 +1366,25 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>166</v>
+        <v>221</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858264', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.64  , 'mo_saldo' =&gt; 3419.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41740</v>
+        <v>41767</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1215,21 +1393,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>165</v>
+        <v>220</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-08'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858271', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3419.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41739</v>
+        <v>41766</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1238,44 +1420,52 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>158</v>
+        <v>219</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858283', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3418.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41738</v>
+        <v>41766</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>157</v>
+        <v>218</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-07'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005465831', 'mo_oficina' =&gt; 'CENTRO FINANCIERO ORELLANA CFO', 'mo_monto' =&gt; 725.00  , 'mo_saldo' =&gt; 3418.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41737</v>
+        <v>41765</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1284,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1293,12 +1483,16 @@
         <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858288', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4143.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41736</v>
+        <v>41764</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1307,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1316,12 +1510,16 @@
         <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858293', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4143.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41733</v>
+        <v>41761</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1330,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1339,35 +1537,39 @@
         <v>143</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858295', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4143.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41733</v>
+        <v>41759</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41732</v>
+        <v>41758</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1376,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1385,12 +1587,12 @@
         <v>89</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41731</v>
+        <v>41757</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1399,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1408,12 +1610,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41730</v>
+        <v>41754</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1422,21 +1624,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41729</v>
+        <v>41753</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1445,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1454,12 +1656,12 @@
         <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41726</v>
+        <v>41752</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1468,21 +1670,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41724</v>
+        <v>41751</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1491,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1500,12 +1702,12 @@
         <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41723</v>
+        <v>41750</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1514,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1523,12 +1725,12 @@
         <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41722</v>
+        <v>41746</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1537,21 +1739,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41719</v>
+        <v>41745</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1560,21 +1762,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41718</v>
+        <v>41744</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1583,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1592,12 +1794,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41717</v>
+        <v>41743</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1606,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1615,12 +1817,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41716</v>
+        <v>41740</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1629,21 +1831,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41715</v>
+        <v>41739</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1652,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1661,12 +1863,12 @@
         <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41712</v>
+        <v>41738</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1675,21 +1877,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41711</v>
+        <v>41737</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1698,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1707,12 +1909,12 @@
         <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41710</v>
+        <v>41736</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1721,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1730,12 +1932,12 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41709</v>
+        <v>41733</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1744,44 +1946,44 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41708</v>
+        <v>41733</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41705</v>
+        <v>41732</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1790,21 +1992,21 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41704</v>
+        <v>41731</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1813,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1822,12 +2024,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41703</v>
+        <v>41730</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1836,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1845,35 +2047,35 @@
         <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41703</v>
+        <v>41729</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41698</v>
+        <v>41726</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1882,21 +2084,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41697</v>
+        <v>41724</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1905,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1914,12 +2116,12 @@
         <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41696</v>
+        <v>41723</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1928,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1937,12 +2139,12 @@
         <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41695</v>
+        <v>41722</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1951,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -1960,12 +2162,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41694</v>
+        <v>41719</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1974,21 +2176,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41691</v>
+        <v>41718</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1997,21 +2199,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41690</v>
+        <v>41717</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2020,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2029,35 +2231,35 @@
         <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41690</v>
+        <v>41716</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41689</v>
+        <v>41715</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2066,21 +2268,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41688</v>
+        <v>41712</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2089,21 +2291,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41687</v>
+        <v>41711</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2112,21 +2314,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41684</v>
+        <v>41710</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2135,21 +2337,21 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41683</v>
+        <v>41709</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2158,21 +2360,21 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41682</v>
+        <v>41708</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2181,21 +2383,21 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41681</v>
+        <v>41705</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2204,21 +2406,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41680</v>
+        <v>41704</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2227,21 +2429,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41677</v>
+        <v>41703</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2250,44 +2452,44 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41676</v>
+        <v>41703</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41675</v>
+        <v>41698</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2296,21 +2498,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41674</v>
+        <v>41697</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2319,44 +2521,44 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41674</v>
+        <v>41696</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41673</v>
+        <v>41695</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2365,21 +2567,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41670</v>
+        <v>41694</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2388,21 +2590,21 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41669</v>
+        <v>41691</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2411,21 +2613,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41668</v>
+        <v>41690</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2434,44 +2636,44 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41667</v>
+        <v>41690</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41666</v>
+        <v>41689</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2480,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2489,35 +2691,35 @@
         <v>10</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41666</v>
+        <v>41688</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41663</v>
+        <v>41687</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2526,21 +2728,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41662</v>
+        <v>41684</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2549,21 +2751,21 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41661</v>
+        <v>41683</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2572,21 +2774,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41660</v>
+        <v>41682</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2595,21 +2797,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41659</v>
+        <v>41681</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2618,21 +2820,21 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41656</v>
+        <v>41680</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2641,21 +2843,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41655</v>
+        <v>41677</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2664,21 +2866,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41654</v>
+        <v>41676</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2687,21 +2889,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41653</v>
+        <v>41675</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2710,21 +2912,21 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41652</v>
+        <v>41674</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2733,44 +2935,44 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41652</v>
+        <v>41674</v>
       </c>
       <c r="B80" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41649</v>
+        <v>41673</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2779,21 +2981,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41648</v>
+        <v>41670</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2802,21 +3004,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41647</v>
+        <v>41669</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -2825,21 +3027,21 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41646</v>
+        <v>41668</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2848,21 +3050,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41645</v>
+        <v>41667</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2871,21 +3073,21 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41642</v>
+        <v>41666</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -2894,52 +3096,466 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>41641</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="246">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -723,6 +723,45 @@
   </si>
   <si>
     <t>2822.62</t>
+  </si>
+  <si>
+    <t>0000857922</t>
+  </si>
+  <si>
+    <t>0.15  </t>
+  </si>
+  <si>
+    <t>0004188951</t>
+  </si>
+  <si>
+    <t>EL GIRON</t>
+  </si>
+  <si>
+    <t>400.00  </t>
+  </si>
+  <si>
+    <t>0000857925</t>
+  </si>
+  <si>
+    <t>0000857968</t>
+  </si>
+  <si>
+    <t>0000858018</t>
+  </si>
+  <si>
+    <t>2822.80</t>
+  </si>
+  <si>
+    <t>2822.98</t>
+  </si>
+  <si>
+    <t>2823.16</t>
+  </si>
+  <si>
+    <t>2423.16</t>
+  </si>
+  <si>
+    <t>2423.31</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H1:H18"/>
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1099,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41782</v>
+        <v>41788</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1069,79 +1108,79 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H18" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-23'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858125', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.53  , 'mo_saldo' =&gt; 2822.62, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857922', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2423.31, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41781</v>
+        <v>41788</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-22'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858132', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.09, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004188951', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 2423.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41781</v>
+        <v>41787</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-22'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0003268572', 'mo_oficina' =&gt; 'HOSPITAL METROPOLITANO', 'mo_monto' =&gt; 600.00  , 'mo_saldo' =&gt; 2821.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857925', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2823.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41780</v>
+        <v>41786</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1150,25 +1189,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-21'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858229', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.91, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857968', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.98, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41779</v>
+        <v>41785</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1177,25 +1216,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-20'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858233', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.70, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858018', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41778</v>
+        <v>41782</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1204,25 +1243,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-19'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858237', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3421.49, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41775</v>
+        <v>41781</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1231,52 +1266,44 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-16'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858244', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.64  , 'mo_saldo' =&gt; 3421.28, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41774</v>
+        <v>41781</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-15'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858251', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.64, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41773</v>
+        <v>41780</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1285,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1294,16 +1321,12 @@
         <v>197</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-14'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858256', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.43, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1312,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1321,16 +1344,12 @@
         <v>197</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-13'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858258', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41771</v>
+        <v>41778</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1339,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1348,16 +1367,12 @@
         <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-12'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858263', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3420.01, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41768</v>
+        <v>41775</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1366,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1375,16 +1390,12 @@
         <v>201</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-09'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858264', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.64  , 'mo_saldo' =&gt; 3419.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41767</v>
+        <v>41774</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1393,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1402,16 +1413,12 @@
         <v>197</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-08'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858271', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3419.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1420,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1429,179 +1436,159 @@
         <v>197</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-07'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858283', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.21  , 'mo_saldo' =&gt; 3418.95, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41766</v>
+        <v>41772</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-07'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0005465831', 'mo_oficina' =&gt; 'CENTRO FINANCIERO ORELLANA CFO', 'mo_monto' =&gt; 725.00  , 'mo_saldo' =&gt; 3418.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>41771</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41767</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41766</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41766</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>41765</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-06'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858288', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4143.74, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41764</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-05'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858293', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.26  , 'mo_saldo' =&gt; 4143.48, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>41761</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-02'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858295', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.78  , 'mo_saldo' =&gt; 4143.22, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-24 17:54:23'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>41759</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>41758</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>41757</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1610,12 +1597,12 @@
         <v>89</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41754</v>
+        <v>41764</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1624,44 +1611,44 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>41753</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41752</v>
+        <v>41759</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1670,21 +1657,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1693,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1702,12 +1689,12 @@
         <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41750</v>
+        <v>41757</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1716,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1725,12 +1712,12 @@
         <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41746</v>
+        <v>41754</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1739,21 +1726,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41745</v>
+        <v>41753</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1762,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1771,12 +1758,12 @@
         <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41744</v>
+        <v>41752</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1785,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1794,12 +1781,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41743</v>
+        <v>41751</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1808,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1817,12 +1804,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41740</v>
+        <v>41750</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1831,21 +1818,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41739</v>
+        <v>41746</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1854,21 +1841,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41738</v>
+        <v>41745</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1877,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1886,12 +1873,12 @@
         <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1900,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1909,12 +1896,12 @@
         <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1923,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1932,12 +1919,12 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1946,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1955,35 +1942,35 @@
         <v>143</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41732</v>
+        <v>41738</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1992,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -2001,12 +1988,12 @@
         <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2015,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2024,12 +2011,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41730</v>
+        <v>41736</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2038,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2047,12 +2034,12 @@
         <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41729</v>
+        <v>41733</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2061,44 +2048,44 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41726</v>
+        <v>41733</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41724</v>
+        <v>41732</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2107,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -2116,12 +2103,12 @@
         <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41723</v>
+        <v>41731</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2130,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2139,12 +2126,12 @@
         <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41722</v>
+        <v>41730</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2153,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2162,12 +2149,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41719</v>
+        <v>41729</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2176,21 +2163,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41718</v>
+        <v>41726</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2199,21 +2186,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2222,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2231,12 +2218,12 @@
         <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2245,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2254,12 +2241,12 @@
         <v>89</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41715</v>
+        <v>41722</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2268,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2277,12 +2264,12 @@
         <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41712</v>
+        <v>41719</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2291,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2300,12 +2287,12 @@
         <v>94</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41711</v>
+        <v>41718</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2314,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2323,12 +2310,12 @@
         <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41710</v>
+        <v>41717</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2337,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2346,12 +2333,12 @@
         <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2360,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2369,12 +2356,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41708</v>
+        <v>41715</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2383,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2392,12 +2379,12 @@
         <v>89</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41705</v>
+        <v>41712</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2406,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
@@ -2415,12 +2402,12 @@
         <v>94</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41704</v>
+        <v>41711</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2429,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2438,12 +2425,12 @@
         <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41703</v>
+        <v>41710</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2452,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2461,35 +2448,35 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41703</v>
+        <v>41709</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41698</v>
+        <v>41708</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2498,21 +2485,21 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41697</v>
+        <v>41705</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2521,21 +2508,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41696</v>
+        <v>41704</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2544,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2553,12 +2540,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41695</v>
+        <v>41703</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2567,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2576,35 +2563,35 @@
         <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41694</v>
+        <v>41703</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41691</v>
+        <v>41698</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2613,21 +2600,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41690</v>
+        <v>41697</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2636,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2645,35 +2632,35 @@
         <v>89</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41690</v>
+        <v>41696</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41689</v>
+        <v>41695</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2682,21 +2669,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41688</v>
+        <v>41694</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2705,21 +2692,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2728,21 +2715,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41684</v>
+        <v>41690</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2751,44 +2738,44 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41683</v>
+        <v>41690</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41682</v>
+        <v>41689</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2797,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -2806,12 +2793,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2820,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2829,12 +2816,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41680</v>
+        <v>41687</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2843,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -2852,12 +2839,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41677</v>
+        <v>41684</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2866,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2875,12 +2862,12 @@
         <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41676</v>
+        <v>41683</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2889,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2898,12 +2885,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41675</v>
+        <v>41682</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2912,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -2921,12 +2908,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2935,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -2944,35 +2931,35 @@
         <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41673</v>
+        <v>41677</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2981,21 +2968,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41670</v>
+        <v>41676</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3004,21 +2991,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41669</v>
+        <v>41675</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3027,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3036,12 +3023,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3050,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3059,35 +3046,35 @@
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41666</v>
+        <v>41673</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3096,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3105,35 +3092,35 @@
         <v>10</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41666</v>
+        <v>41670</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41663</v>
+        <v>41669</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3142,21 +3129,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41662</v>
+        <v>41668</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3165,21 +3152,21 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41661</v>
+        <v>41667</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3188,21 +3175,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41660</v>
+        <v>41666</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3211,44 +3198,44 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41659</v>
+        <v>41666</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41656</v>
+        <v>41663</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3257,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
@@ -3266,12 +3253,12 @@
         <v>14</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41655</v>
+        <v>41662</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3289,12 +3276,12 @@
         <v>16</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41654</v>
+        <v>41661</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3303,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3312,12 +3299,12 @@
         <v>16</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3326,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3335,12 +3322,12 @@
         <v>16</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41652</v>
+        <v>41659</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3349,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -3358,35 +3345,35 @@
         <v>16</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41652</v>
+        <v>41656</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41649</v>
+        <v>41655</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3395,21 +3382,21 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41648</v>
+        <v>41654</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3418,21 +3405,21 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41647</v>
+        <v>41653</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3441,21 +3428,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41646</v>
+        <v>41652</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3464,44 +3451,44 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41645</v>
+        <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41642</v>
+        <v>41649</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -3510,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3519,12 +3506,12 @@
         <v>22</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41641</v>
+        <v>41648</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3533,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -3542,20 +3529,135 @@
         <v>24</v>
       </c>
       <c r="G105" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backup/cuenta_2200555154.xlsx
+++ b/backup/cuenta_2200555154.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="249">
   <si>
     <t>  TRANSFERENCIA INTERNET</t>
   </si>
@@ -762,6 +762,15 @@
   </si>
   <si>
     <t>2423.31</t>
+  </si>
+  <si>
+    <t>0000857917</t>
+  </si>
+  <si>
+    <t>0.45  </t>
+  </si>
+  <si>
+    <t>2423.76</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1108,20 +1117,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:H5" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857922', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.15  , 'mo_saldo' =&gt; 2423.31, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <f t="shared" ref="H1:H6" ca="1" si="0">CONCATENATE("array('mo_fecha' =&gt; new \DateTime('",TEXT(A1,"yyyy-mm-dd"),"'), 'mo_concepto' =&gt; '",B1,"', 'mo_tipo' =&gt; '",C1,"', 'mo_documento' =&gt; '",D1,"', 'mo_oficina' =&gt; '",E1,"', 'mo_monto' =&gt; ",F1,", 'mo_saldo' =&gt; ",G1,", 'mo_fecha_crea' =&gt; new \DateTime('",TEXT(NOW(),"yyyy-mm-dd H:m:s"),"'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),")</f>
+        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-30'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857917', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.45  , 'mo_saldo' =&gt; 2423.76, 'mo_fecha_crea' =&gt; new \DateTime('2014-06-01 12:1:56'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,58 +1138,50 @@
         <v>41788</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-29'), 'mo_concepto' =&gt; 'PAGO/RETIRO', 'mo_tipo' =&gt; 'D', 'mo_documento' =&gt; '0004188951', 'mo_oficina' =&gt; 'EL GIRON', 'mo_monto' =&gt; 400.00  , 'mo_saldo' =&gt; 2423.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-28'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857925', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2823.16, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1189,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -1198,16 +1199,12 @@
         <v>190</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-27'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000857968', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.98, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1216,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1225,16 +1222,12 @@
         <v>190</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>array('mo_fecha' =&gt; new \DateTime('2014-05-26'), 'mo_concepto' =&gt; 'INTERES A SU FAVOR', 'mo_tipo' =&gt; 'C', 'mo_documento' =&gt; '0000858018', 'mo_oficina' =&gt; 'AGENCIA PARA PROCESOS BATCH', 'mo_monto' =&gt; 0.18  , 'mo_saldo' =&gt; 2822.80, 'mo_fecha_crea' =&gt; new \DateTime('2014-05-30 10:47:22'), 'mo_quien_crea' =&gt; 1, 'mo_fecha_modifica' =&gt; NULL, 'mo_quien_modifica' =&gt; NULL, 'mo_fecha_borrado' =&gt; NULL, 'mo_quien_borra' =&gt; NULL, 'mo_borrado_logico' =&gt; false),</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41782</v>
+        <v>41785</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1243,21 +1236,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1266,16 +1259,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,50 +1276,50 @@
         <v>41781</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1335,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1344,12 +1337,12 @@
         <v>197</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1358,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1367,12 +1360,12 @@
         <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1381,21 +1374,21 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1404,21 +1397,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1427,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1436,12 +1429,12 @@
         <v>197</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1450,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1459,12 +1452,12 @@
         <v>197</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1473,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1482,12 +1475,12 @@
         <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1496,21 +1489,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1519,21 +1512,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1542,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1551,7 +1544,7 @@
         <v>197</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,50 +1552,50 @@
         <v>41766</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1611,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1620,12 +1613,12 @@
         <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41761</v>
+        <v>41764</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1634,21 +1627,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41759</v>
+        <v>41761</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1657,21 +1650,21 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1680,21 +1673,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1703,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1712,12 +1705,12 @@
         <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1726,21 +1719,21 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1749,21 +1742,21 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1772,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1781,12 +1774,12 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1795,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1804,12 +1797,12 @@
         <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1818,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1827,12 +1820,12 @@
         <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41746</v>
+        <v>41750</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1841,21 +1834,21 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1864,21 +1857,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1887,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1896,12 +1889,12 @@
         <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1910,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1919,12 +1912,12 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>41740</v>
+        <v>41743</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1933,21 +1926,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1956,21 +1949,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1979,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1988,12 +1981,12 @@
         <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2002,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -2011,12 +2004,12 @@
         <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2025,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2034,12 +2027,12 @@
         <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41733</v>
+        <v>41736</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2048,16 +2041,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,50 +2058,50 @@
         <v>41733</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2117,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2126,12 +2119,12 @@
         <v>89</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2140,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2149,12 +2142,12 @@
         <v>89</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2163,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2172,12 +2165,12 @@
         <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41726</v>
+        <v>41729</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2186,21 +2179,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41724</v>
+        <v>41726</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2209,21 +2202,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2232,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2241,12 +2234,12 @@
         <v>89</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2255,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2264,12 +2257,12 @@
         <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41719</v>
+        <v>41722</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2278,21 +2271,21 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2301,21 +2294,21 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2324,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2333,12 +2326,12 @@
         <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2347,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2356,12 +2349,12 @@
         <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2370,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2379,12 +2372,12 @@
         <v>89</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2393,21 +2386,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2416,21 +2409,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2439,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2448,12 +2441,12 @@
         <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2462,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2471,12 +2464,12 @@
         <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2485,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2494,12 +2487,12 @@
         <v>89</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41705</v>
+        <v>41708</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2508,21 +2501,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2531,21 +2524,21 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2554,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2563,7 +2556,7 @@
         <v>89</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,50 +2564,50 @@
         <v>41703</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41698</v>
+        <v>41703</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2623,21 +2616,21 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2646,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2655,12 +2648,12 @@
         <v>89</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2669,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2678,12 +2671,12 @@
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2692,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2701,12 +2694,12 @@
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41691</v>
+        <v>41694</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2715,21 +2708,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2738,16 +2731,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,50 +2748,50 @@
         <v>41690</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2807,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2816,12 +2809,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2830,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -2839,12 +2832,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2853,21 +2846,21 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2876,21 +2869,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2899,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -2908,12 +2901,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2922,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -2931,12 +2924,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2945,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -2954,12 +2947,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41677</v>
+        <v>41680</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2968,21 +2961,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2991,21 +2984,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3014,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3023,12 +3016,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -3037,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -3046,7 +3039,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,50 +3047,50 @@
         <v>41674</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41670</v>
+        <v>41673</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -3106,21 +3099,21 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3129,21 +3122,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3152,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3161,12 +3154,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3175,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3184,12 +3177,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3198,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3207,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,50 +3208,50 @@
         <v>41666</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41663</v>
+        <v>41666</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3267,21 +3260,21 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3299,12 +3292,12 @@
         <v>16</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -3322,12 +3315,12 @@
         <v>16</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3345,12 +3338,12 @@
         <v>16</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41656</v>
+        <v>41659</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -3365,15 +3358,15 @@
         <v>4</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -3388,15 +3381,15 @@
         <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -3405,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
@@ -3414,12 +3407,12 @@
         <v>16</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -3428,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -3437,12 +3430,12 @@
         <v>16</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3451,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3460,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3468,50 +3461,50 @@
         <v>41652</v>
       </c>
       <c r="B103" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41649</v>
+        <v>41652</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -3526,15 +3519,15 @@
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -3543,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -3552,12 +3545,12 @@
         <v>24</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3566,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3575,12 +3568,12 @@
         <v>24</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3598,12 +3591,12 @@
         <v>24</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41642</v>
+        <v>41645</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3618,37 +3611,57 @@
         <v>4</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>41641</v>
       </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
@@ -3658,6 +3671,9 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
